--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792558.2949117725</v>
+        <v>1096918.772886566</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>322.3938476308371</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>368.5640728487112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>87.02034412070425</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>38.99494947571338</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>26.99995778729098</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>106.4061678803923</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>31.66877976351897</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>242.818588882901</v>
       </c>
       <c r="V8" t="n">
-        <v>122.7253106933293</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.8530343211899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.4787752061471201</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>188.9594513355734</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>64.34190763938523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>60.54139430664167</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>49.32930310280685</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>64.34190763938523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.90088782653753</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>64.34190763938523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>88.65350124798437</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9765264254024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>74.23837614724418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4364,16 +4364,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1370.76667303138</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1370.76667303138</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1370.76667303138</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>984.9784204331354</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>573.9925156435279</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1723320447962</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D7" t="n">
-        <v>319.1723320447962</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>319.1723320447962</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>319.1723320447962</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>319.1723320447962</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>161.4239594773264</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>666.7233986322594</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>666.7233986322594</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V8" t="n">
-        <v>2518.155441252423</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.386785982309</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>188.7458755710942</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>593.7883833041373</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X10" t="n">
-        <v>593.7883833041373</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>188.7458755710942</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1357.551052309181</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3186630225903</v>
+        <v>581.537768108745</v>
       </c>
       <c r="L15" t="n">
-        <v>1037.215732779479</v>
+        <v>811.5008739770942</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799443</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>517.7409586960525</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>838.0762782257543</v>
       </c>
       <c r="N18" t="n">
-        <v>1949.360523305091</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2198.113937389053</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473454</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>674.7185717878253</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>566.8039027478611</v>
       </c>
       <c r="M21" t="n">
-        <v>1608.660951743751</v>
+        <v>1335.172049140323</v>
       </c>
       <c r="N21" t="n">
-        <v>2413.072530007902</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O21" t="n">
-        <v>2413.072530007902</v>
+        <v>2349.1564660806</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>3796.266898524762</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431056</v>
@@ -5932,28 +5932,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4684.787643677749</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>4684.787643677749</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>4684.787643677749</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>4684.787643677749</v>
+        <v>4716.11466343351</v>
       </c>
       <c r="W22" t="n">
-        <v>4684.787643677749</v>
+        <v>4426.697493396549</v>
       </c>
       <c r="X22" t="n">
-        <v>4684.787643677749</v>
+        <v>4198.707942498532</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.787643677749</v>
+        <v>3977.915363355002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1942790685366</v>
+        <v>979.7084252508738</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.605857332687</v>
+        <v>1784.120003515025</v>
       </c>
       <c r="O24" t="n">
-        <v>2360.905457152158</v>
+        <v>2032.873417598987</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>2553.174039334734</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.3226148324574</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>420.3226148324574</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>420.3226148324574</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>420.3226148324574</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324574</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324574</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6269,7 +6269,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>554.2152884646821</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L27" t="n">
-        <v>784.1783943330313</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1552.546540725493</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1897.067196363111</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.139178847509</v>
+        <v>782.4872769945461</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>613.5510940666392</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>613.5510940666392</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>465.638000484246</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4684.787643677749</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y28" t="n">
-        <v>4684.787643677749</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,34 +6458,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.726987855212</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N30" t="n">
-        <v>1569.24764349283</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O30" t="n">
-        <v>1818.001057576792</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2338.301679312539</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.139178847509</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919602</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507267</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924874</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
         <v>3459.155393916675</v>
@@ -6631,40 +6631,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.72593422785</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.72593422785</v>
+        <v>3782.260917288846</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.72593422785</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="X31" t="n">
-        <v>4571.72593422785</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y31" t="n">
-        <v>4571.72593422785</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>2745.388427942953</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>3359.285497699841</v>
       </c>
       <c r="M33" t="n">
-        <v>1002.792923427374</v>
+        <v>3666.605630979803</v>
       </c>
       <c r="N33" t="n">
-        <v>1332.655551091407</v>
+        <v>3996.468258643836</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4276.008323862533</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.139178847509</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X34" t="n">
-        <v>4684.787643677749</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.787643677749</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6920,40 +6920,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256434</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L36" t="n">
-        <v>368.6712744939925</v>
+        <v>2546.343292182034</v>
       </c>
       <c r="M36" t="n">
-        <v>1019.893908186785</v>
+        <v>2866.678611711735</v>
       </c>
       <c r="N36" t="n">
-        <v>1364.414563824403</v>
+        <v>3671.090189975886</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>4340.553951278545</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7126,19 +7126,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7254,22 +7254,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>281.7397448998169</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1050.107891292278</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="41">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>800.3720368487714</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265284</v>
+        <v>1604.783615112922</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483981</v>
+        <v>1884.323680331619</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3893.336020727022</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C43" t="n">
-        <v>3724.399837799115</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>3574.283198386779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.020508932908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>3893.336020727022</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>3893.336020727022</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>3893.336020727022</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>3893.336020727022</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="44">
@@ -7664,10 +7664,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>246.2867756623457</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>493.0519035688097</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M45" t="n">
-        <v>800.3720368487714</v>
+        <v>1547.929689730967</v>
       </c>
       <c r="N45" t="n">
-        <v>1144.892692486389</v>
+        <v>1892.450345368585</v>
       </c>
       <c r="O45" t="n">
-        <v>1814.356453789049</v>
+        <v>2141.203759452547</v>
       </c>
       <c r="P45" t="n">
-        <v>2334.657075524796</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4094.296631519491</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.360448591584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D46" t="n">
-        <v>3775.243809179248</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596855</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.72593422785</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.72593422785</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>4496.73767549326</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y46" t="n">
-        <v>4275.94509634973</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>98.44860941744832</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>5.533832915178465</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>197.9473232470434</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>85.57005156952999</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670059</v>
+        <v>241.533259542016</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>203.8217448425445</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.5789023442195</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>28.06079404634626</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>145.955187440422</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>36.7502040534637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>133.578902344218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>105.9521741567359</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>96.0917449201244</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.578902344218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9310923553998</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>133.578902344218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>208.5757848497503</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>78.59331985064347</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45743622116676</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>151.471279241793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
@@ -26335,25 +26335,25 @@
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852506</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400032</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
+        <v>270706.8446745414</v>
+      </c>
+      <c r="D6" t="n">
         <v>270706.8446745413</v>
       </c>
-      <c r="D6" t="n">
-        <v>270706.8446745414</v>
-      </c>
       <c r="E6" t="n">
-        <v>-148700.2844309383</v>
+        <v>-148700.284430938</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459582</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459577</v>
+        <v>376459.7520459579</v>
       </c>
       <c r="I6" t="n">
+        <v>376459.7520459579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200036.5328533648</v>
+      </c>
+      <c r="K6" t="n">
         <v>376459.7520459578</v>
-      </c>
-      <c r="J6" t="n">
-        <v>200036.5328533649</v>
-      </c>
-      <c r="K6" t="n">
-        <v>376459.752045958</v>
       </c>
       <c r="L6" t="n">
         <v>376459.752045958</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121209</v>
+        <v>241658.7368121208</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.752045958</v>
       </c>
       <c r="O6" t="n">
+        <v>376459.752045958</v>
+      </c>
+      <c r="P6" t="n">
         <v>376459.7520459581</v>
-      </c>
-      <c r="P6" t="n">
-        <v>376459.752045958</v>
       </c>
     </row>
   </sheetData>
@@ -26738,34 +26738,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5.35841083929779</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.67386580734239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>138.6893112683329</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>374.7892205450816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>322.2410109301221</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>28.55945391194592</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>194.0408756255182</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>8.40557862538833</v>
       </c>
       <c r="V8" t="n">
-        <v>205.0269477768056</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>11.96618320970879</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.525803443317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>34.77051449707545</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>278.4799167015761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>202.7717287923909</v>
+        <v>194.5877923618782</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32090,22 +32090,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>253.7496853276359</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>175.1732645054594</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>372.2688744803115</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>211.0923458450156</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,25 +33023,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>166.9893280749459</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.0578460103733</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>352.5393626925942</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2296102657478</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33974,25 +33974,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>283.0307194507565</v>
       </c>
       <c r="M39" t="n">
-        <v>396.5537155454428</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34445,13 +34445,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,13 +34460,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>302.7538063739804</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>358.341544325057</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>529.7459915338612</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>329.3955268306105</v>
+        <v>321.2115904000978</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35738,13 +35738,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>601.7503475878561</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>359.6616257310664</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>347.7063143734726</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>212.6272478467032</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>623.5349493125966</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>71.11057175899408</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>293.6131261131655</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>288.1533596602009</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>480.3110254881516</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>292.6634665010546</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>213.98498291272</v>
       </c>
       <c r="M36" t="n">
-        <v>657.8006400937294</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178376</v>
@@ -37403,7 +37403,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>144.4763396708823</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782252</v>
+        <v>448.6266744735407</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>487.2421675995873</v>
       </c>
       <c r="Q45" t="n">
-        <v>291.8347776276186</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752473.797681388</v>
+        <v>1828003.467346192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1096918.772886566</v>
+        <v>231443.2041814298</v>
       </c>
     </row>
     <row r="8">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>107.0617116175707</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>322.3938476308371</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.59601561836874</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>38.99494947571338</v>
+        <v>208.0618268998423</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>72.43998417784667</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>31.66877976351897</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>242.818588882901</v>
+        <v>215.5278181602327</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.4548648132225</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>127.0075787948427</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.2530778377178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.5311446500695</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>27.07419625387022</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4787752061471201</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>62.09617589318572</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>111.9255139953598</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>49.32930310280685</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3370797092948</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>17.13387053928689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6.30003116274762</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>33.35146980185857</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>59.01585011841158</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>128.4285848360769</v>
       </c>
       <c r="C43" t="n">
-        <v>88.65350124798437</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1318.230557723833</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>907.244652934226</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>489.2808448324129</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>162.0861248684157</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2140.292562720626</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2140.292562720626</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2140.292562720626</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.76667303138</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.76667303138</v>
+        <v>1060.880600723209</v>
       </c>
       <c r="D5" t="n">
-        <v>1370.76667303138</v>
+        <v>1060.880600723209</v>
       </c>
       <c r="E5" t="n">
-        <v>984.9784204331354</v>
+        <v>675.0923481249642</v>
       </c>
       <c r="F5" t="n">
-        <v>573.9925156435279</v>
+        <v>264.1064433353567</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,13 +4585,13 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
         <v>2520.971603332393</v>
@@ -4601,16 +4603,16 @@
         <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.0749338020197</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>485.0749338020197</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0749338020197</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.540363870312</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.540363870312</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.540363870312</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>625.540363870312</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X7" t="n">
-        <v>666.7233986322594</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.7233986322594</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2275.700301430472</v>
+        <v>2479.444224189705</v>
       </c>
       <c r="V8" t="n">
-        <v>1944.637414086902</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W8" t="n">
-        <v>1591.868758816787</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.7458755710942</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="C10" t="n">
-        <v>188.7458755710942</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="D10" t="n">
-        <v>188.7458755710942</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="E10" t="n">
-        <v>188.7458755710942</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146243</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146243</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146243</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146243</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.7458755710942</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5042,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5129,16 @@
         <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1942790685366</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N12" t="n">
-        <v>1283.714934706155</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5233,16 +5235,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,22 +5360,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>581.537768108745</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>811.5008739770942</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M15" t="n">
-        <v>1131.836193506796</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N15" t="n">
-        <v>1476.356849144414</v>
+        <v>1542.291338536857</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2211.755099839516</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>517.7409586960525</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M18" t="n">
-        <v>838.0762782257543</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2170.791457744991</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.7185717878253</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>674.7185717878253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>674.7185717878253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878253</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.7185717878253</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>566.8039027478611</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M21" t="n">
-        <v>1335.172049140323</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N21" t="n">
-        <v>1679.69270477794</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O21" t="n">
-        <v>2349.1564660806</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P21" t="n">
         <v>2554.178946862809</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3796.266898524762</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>3627.330715596855</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596855</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596855</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4716.11466343351</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4426.697493396549</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>4198.707942498532</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>3977.915363355002</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.607977814708</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>659.373105721172</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>979.7084252508738</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N24" t="n">
-        <v>1784.120003515025</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O24" t="n">
-        <v>2032.873417598987</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.174039334734</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>789.0750425434827</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>620.1388596155758</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.689320534781</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>789.0750425434827</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089419</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>696.2159869504471</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.4872769945461</v>
+        <v>4353.022539435175</v>
       </c>
       <c r="C28" t="n">
-        <v>613.5510940666392</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="D28" t="n">
-        <v>613.5510940666392</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E28" t="n">
-        <v>465.638000484246</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1357418247858</v>
+        <v>4755.463583408944</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.1357418247858</v>
+        <v>4534.671004265414</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916675</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281175</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494733</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288846</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W31" t="n">
-        <v>3492.843747251885</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916675</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916675</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942953</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>3359.285497699841</v>
+        <v>998.0351573716434</v>
       </c>
       <c r="M33" t="n">
-        <v>3666.605630979803</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N33" t="n">
-        <v>3996.468258643836</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O33" t="n">
-        <v>4276.008323862533</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.996260473455</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2334.498159098441</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2546.343292182034</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M36" t="n">
-        <v>2866.678611711735</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N36" t="n">
-        <v>3671.090189975886</v>
+        <v>2029.138566119362</v>
       </c>
       <c r="O36" t="n">
-        <v>4340.553951278545</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>271.7560809816245</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502827</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7253,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7081686256434</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>281.7397448998169</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>1050.107891292278</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N39" t="n">
-        <v>1854.519469556429</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O39" t="n">
         <v>2103.272883640391</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623457</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>493.0519035688097</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>800.3720368487714</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N42" t="n">
-        <v>1604.783615112922</v>
+        <v>1990.324165399617</v>
       </c>
       <c r="O42" t="n">
-        <v>1884.323680331619</v>
+        <v>2239.077579483579</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2421.72105709693</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.8610847926847</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7606,13 +7608,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5095496229244</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>779.5615433385053</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M45" t="n">
-        <v>1547.929689730967</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N45" t="n">
-        <v>1892.450345368585</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O45" t="n">
-        <v>2141.203759452547</v>
+        <v>1916.402312678656</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>98.44860941744832</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,13 +9497,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>435.7292520104893</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>341.7534840504271</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>184.4602363978453</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,22 +10436,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>85.57005156952999</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10923,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>241.533259542016</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442195</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.05350870202531</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5412767643421</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.955187440422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>163.6134794958514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>36.68995902285259</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>10.654974866147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>96.0917449201244</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>121.3725756797423</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>163.899125433865</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25123,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.5757848497503</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1210168601836</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5688032336832</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.40339534586045</v>
       </c>
       <c r="C43" t="n">
-        <v>78.59331985064347</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5623585656776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26430,34 +26432,34 @@
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400033</v>
+        <v>-319261.0345400032</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
         <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.284430938</v>
+        <v>-148700.2844309382</v>
       </c>
       <c r="F6" t="n">
         <v>376459.7520459578</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533648</v>
+        <v>200036.5328533651</v>
       </c>
       <c r="K6" t="n">
         <v>376459.7520459578</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121208</v>
+        <v>241658.7368121206</v>
       </c>
       <c r="N6" t="n">
         <v>376459.752045958</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.7520459581</v>
+        <v>376459.7520459577</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.86960462729051</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>5.35841083929779</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>22.52673433654556</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>374.7892205450816</v>
+        <v>205.7223431209527</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>74.22520780231119</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>194.0408756255182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>8.40557862538833</v>
+        <v>35.6963493480566</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>11.96618320970879</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>7.958042997495525</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31136,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576413</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,19 +31849,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>383.0062604371804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>278.4799167015761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,13 +32077,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>194.5877923618782</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32093,19 +32095,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>161.3943125352952</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>253.7496853276359</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>202.771728792391</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32549,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>394.9841349460421</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32789,28 +32791,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.0923458450156</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33026,10 +33028,10 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33044,10 +33046,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,10 +33262,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33272,19 +33274,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33497,31 +33499,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>262.5905971701978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33734,13 +33736,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5393626925942</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33749,16 +33751,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>164.6848965247096</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33974,19 +33976,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>283.0307194507565</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>151.6102905369467</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33995,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>133.7958482483629</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,16 +34447,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -34463,19 +34465,19 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>302.7538063739804</v>
+        <v>231.7356543115325</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>706.577290265162</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>529.7459915338612</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>321.2115904000978</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35738,13 +35740,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>345.8826737609021</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>601.7503475878561</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>387.2600900179979</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>347.7063143734726</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>742.9847972062623</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>746.1536290609555</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.11057175899408</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346401</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>674.94805744844</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>494.8765626937828</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>292.6634665010546</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>213.98498291272</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
@@ -37397,10 +37399,10 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>415.9509713569947</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>144.4763396708823</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>499.6109527971669</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>448.6266744735407</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>203.8913618981905</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>348.0006622602202</v>
@@ -38111,10 +38113,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2421675995873</v>
+        <v>416.2240155371395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828003.467346192</v>
+        <v>1820986.452454481</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231443.2041814298</v>
+        <v>595458.8797082783</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>107.0617116175707</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>208.0618268998423</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>90.53841902918157</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>72.43998417784667</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>215.5278181602327</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>127.0075787948427</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>250.5321632999614</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.5311446500695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.07419625387022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>192.6211591710422</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>62.09617589318572</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.482788338502</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.9255139953598</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3370797092948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>57.64843562452423</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.30003116274762</v>
+        <v>30.89505924232687</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.01585011841158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.4285848360769</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.018810322078</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.018810322078</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.018810322078</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.230557723833</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
-        <v>907.244652934226</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G2" t="n">
-        <v>489.2808448324129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>162.0861248684157</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.6186503862</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1429.84311766362</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.880600723209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.880600723209</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>675.0923481249642</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>264.1064433353567</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2605.696142503898</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1816.442957727742</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4649,7 +4649,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>625.540363870312</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>625.540363870312</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>625.540363870312</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>625.540363870312</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2479.444224189705</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2148.381336846134</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1795.61268157602</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1422.14692331494</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164666</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.8899898843844</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>227.8899898843844</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>227.8899898843844</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>227.8899898843844</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>227.8899898843844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>227.8899898843844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>227.8899898843844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>430.4149073808979</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>660.378013249247</v>
       </c>
       <c r="M12" t="n">
-        <v>1318.370476901345</v>
+        <v>980.7133327789488</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
         <v>2554.178946862809</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293931</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X13" t="n">
-        <v>933.2366688293931</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,16 +5281,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>877.4353633695368</v>
+        <v>1039.795319932216</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.770682899239</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N15" t="n">
-        <v>1542.291338536857</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.755099839516</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>738.7219969042602</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>569.7858139763533</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1304.349443112405</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.3704617344999</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>836.471721275012</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1156.807040804714</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N18" t="n">
-        <v>1501.327696442332</v>
+        <v>2080.887084961411</v>
       </c>
       <c r="O18" t="n">
-        <v>2170.791457744991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619627</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1387.227105931296</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,25 +5983,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.551052309181</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>620.1388596155758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,22 +6226,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>388.8958536704856</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>696.2159869504471</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.414563824403</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4353.022539435175</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>4755.463583408944</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>4534.671004265414</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1778.261399527878</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.685527502827</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>998.0351573716434</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1318.370476901345</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>904.39166832551</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.726987855212</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>2029.138566119362</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>738.7219969042602</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="C37" t="n">
-        <v>569.7858139763533</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="D37" t="n">
-        <v>419.6691745640176</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="E37" t="n">
-        <v>271.7560809816245</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.3704617344999</v>
+        <v>447.0175521403269</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1942790685366</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1645.803509761998</v>
+        <v>1524.052509796274</v>
       </c>
       <c r="N42" t="n">
-        <v>1990.324165399617</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O42" t="n">
-        <v>2239.077579483579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P42" t="n">
-        <v>2421.72105709693</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1323.128242957076</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1667.648898594694</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1916.402312678656</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488911</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488911</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>435.7292520104893</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,25 +9959,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>341.7534840504271</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>184.4602363978453</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,13 +10682,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>380.2419910757799</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.605480023866562</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.05350870202531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5412767643421</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>5.299650812561026</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>163.6134794958514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>36.68995902285259</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>121.3725756797423</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>163.899125433865</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>139.1210168601836</v>
+        <v>114.5259887806044</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>159.5688032336832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.40339534586045</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>140.0899409154932</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26438,7 +26438,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26450,16 +26450,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-319261.0345400032</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745413</v>
+        <v>270706.844674541</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745413</v>
+        <v>270706.8446745415</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309382</v>
+        <v>-149674.8756906596</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459577</v>
+        <v>375485.1607862359</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533651</v>
+        <v>199061.9415936432</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.7520459578</v>
+        <v>375485.1607862361</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121206</v>
+        <v>240684.1455523991</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459577</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.7520459577</v>
+        <v>375485.1607862362</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>44.86960462729051</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.52673433654556</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>205.7223431209527</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,16 +27666,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>125.9099013284762</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>74.22520780231119</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>35.6963493480566</v>
+        <v>245.2407793169701</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>7.958042997495525</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304393</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,22 +31834,22 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>41.93843809132559</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>383.0062604371804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
@@ -31858,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>136.7713652592989</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>161.3943125352952</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32317,28 +32317,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>296.9020265967324</v>
       </c>
       <c r="P18" t="n">
-        <v>202.771728792391</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9841349460421</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>284.9322028423996</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33286,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,19 +33499,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>262.5905971701978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>164.6848965247096</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>151.6102905369467</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34231,16 +34231,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.7958482483629</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>231.7356543115325</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686589</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>168.5622361295452</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>706.577290265162</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35506,7 +35506,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>369.0573307828839</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>345.8826737609021</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>548.1681014290175</v>
       </c>
       <c r="P18" t="n">
-        <v>387.2600900179979</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>742.9847972062623</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>746.1536290609555</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36612,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>674.94805744844</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,19 +36919,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>494.8765626937828</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>415.9509713569947</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>499.6109527971669</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>238.1079571537616</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>203.8913618981905</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>416.2240155371395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820986.452454481</v>
+        <v>1825925.715303513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595458.8797082783</v>
+        <v>603516.7172985951</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>284.5615160058696</v>
+        <v>46.3525962840678</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.3178534391397</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.51033041214341</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>90.53841902918157</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>127.0044127072327</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>250.5321632999614</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>201.1710516606683</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>192.6211591710422</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290785</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>12.05100180681459</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>22.71958750778575</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>30.89505924232687</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>164.7833946620412</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>8.525532102719195</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>880.7122078777249</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>511.7496909373132</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>511.7496909373132</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>511.7496909373132</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3788565737681</v>
+        <v>100.7637861477057</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1267.312047941847</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,16 +4430,16 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.6822058285749</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2653.39368350394</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2653.39368350394</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2425.404132605923</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.3306706588146</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,19 +4597,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2605.696142503898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2351.934357141989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2351.934357141989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.934357141989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
         <v>1978.468598880909</v>
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,16 +4652,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8844281164666</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121384</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>430.4149073808979</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L12" t="n">
-        <v>660.378013249247</v>
+        <v>660.3780132492466</v>
       </c>
       <c r="M12" t="n">
-        <v>980.7133327789488</v>
+        <v>980.7133327789484</v>
       </c>
       <c r="N12" t="n">
         <v>1785.124911043099</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>822.1480540508779</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W13" t="n">
-        <v>822.1480540508779</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X13" t="n">
-        <v>822.1480540508779</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1039.795319932216</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1808.163466324677</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="N15" t="n">
-        <v>1808.163466324677</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2056.693778606512</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1304.349443112405</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1080.564027901911</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>791.4353891154691</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>536.7509009095822</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>247.3337308726216</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5606,7 +5606,7 @@
         <v>1276.47550669726</v>
       </c>
       <c r="N18" t="n">
-        <v>2080.887084961411</v>
+        <v>2080.88708496141</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,46 +5980,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6034,7 +6034,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6429,7 +6429,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.0175521403269</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.605480023866562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>17.41360169142646</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>5.299650812561026</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5644712113978</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>202.9900678812514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>114.5259887806044</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>121.4539577365361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>140.0899409154932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185696</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852502</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852503</v>
@@ -26352,10 +26352,10 @@
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400032</v>
+        <v>-319261.0345400031</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.844674541</v>
+        <v>270706.8446745414</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745415</v>
+        <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>-149674.8756906596</v>
+        <v>-148797.7435569108</v>
       </c>
       <c r="F6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199856</v>
       </c>
       <c r="G6" t="n">
-        <v>375485.1607862359</v>
+        <v>376362.2929199859</v>
       </c>
       <c r="H6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="I6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="J6" t="n">
-        <v>199061.9415936432</v>
+        <v>199939.0737273928</v>
       </c>
       <c r="K6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199856</v>
       </c>
       <c r="L6" t="n">
-        <v>375485.1607862361</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="M6" t="n">
-        <v>240684.1455523991</v>
+        <v>241561.2776861484</v>
       </c>
       <c r="N6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="O6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="P6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199858</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26764,16 +26764,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2226540149254</v>
+        <v>367.4315737367272</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.8197898846883</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0743229399514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>125.9099013284762</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>85.14112624278616</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2407793169701</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>115.4815392304393</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>41.93843809132559</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>209.9396523866405</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>136.7713652592989</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>90.02710286925412</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32323,13 +32323,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>296.9020265967324</v>
+        <v>296.9020265967329</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32967,7 +32967,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>224.6051223555648</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>91.84465193776708</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34389,7 +34389,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>242.1053372686589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>168.5622361295452</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>442.2256179102255</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>369.0573307828839</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>274.515464094861</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>548.1681014290175</v>
+        <v>548.168101429018</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36615,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>572.6057846157851</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>343.1107267700522</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
